--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_14_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_14_7.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_0</t>
+          <t>model_14_7_3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9941945871688807</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8057180464837539</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9502980081885258</v>
+        <v>0.9955660684122097</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7144324801802818</v>
+        <v>0.9745870800543854</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9392095330415416</v>
+        <v>0.9928608937658271</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.03882082233316315</v>
       </c>
       <c r="H2" t="n">
-        <v>1.479707906084425</v>
+        <v>1.299164317749276</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4901934027661541</v>
+        <v>0.02978388722890119</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1394297833258974</v>
+        <v>0.08678557178160047</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3148115930460258</v>
+        <v>0.05828471878104129</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.2502458991836716</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.197030003636916</v>
       </c>
       <c r="N2" t="n">
-        <v>1.010150734101484</v>
+        <v>1.00284346750912</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2054179788000743</v>
       </c>
       <c r="P2" t="n">
-        <v>149.9525535028395</v>
+        <v>152.4975970364623</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.9304887182182</v>
+        <v>241.4755322518409</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_22</t>
+          <t>model_14_7_4</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9942851568951747</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8056197507155715</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9502980081885258</v>
+        <v>0.9952792298608835</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7144324801802818</v>
+        <v>0.969210356925205</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9392095330415416</v>
+        <v>0.9916183630877069</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.03821518215639987</v>
       </c>
       <c r="H3" t="n">
-        <v>1.479707906084425</v>
+        <v>1.299821622003723</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4901934027661541</v>
+        <v>0.03171065738681939</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1394297833258974</v>
+        <v>0.1051471765116309</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3148115930460258</v>
+        <v>0.06842892293987535</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.2822904933026955</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.1954870383334912</v>
       </c>
       <c r="N3" t="n">
-        <v>1.010150734101484</v>
+        <v>1.002799106826853</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2038093262693042</v>
       </c>
       <c r="P3" t="n">
-        <v>149.9525535028395</v>
+        <v>152.5290448073564</v>
       </c>
       <c r="Q3" t="n">
-        <v>238.9304887182182</v>
+        <v>241.5069800227351</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_21</t>
+          <t>model_14_7_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9938982028387104</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8056007207173894</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9502980081885258</v>
+        <v>0.9956863263497855</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7144324801802818</v>
+        <v>0.9794412735229155</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9392095330415416</v>
+        <v>0.9939256062029999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.0408027457137357</v>
       </c>
       <c r="H4" t="n">
-        <v>1.479707906084425</v>
+        <v>1.299948875689191</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4901934027661541</v>
+        <v>0.02897608296304412</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1394297833258974</v>
+        <v>0.0702084150988401</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3148115930460258</v>
+        <v>0.04959224903094211</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.2163790019514781</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2019968953071697</v>
       </c>
       <c r="N4" t="n">
-        <v>1.010150734101484</v>
+        <v>1.002988635344305</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2105963213316139</v>
       </c>
       <c r="P4" t="n">
-        <v>149.9525535028395</v>
+        <v>152.3980118058621</v>
       </c>
       <c r="Q4" t="n">
-        <v>238.9304887182182</v>
+        <v>241.3759470212408</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_20</t>
+          <t>model_14_7_5</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.994222371603086</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8053672588554812</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9502980081885258</v>
+        <v>0.9948782535824692</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7144324801802818</v>
+        <v>0.9635303088663567</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9392095330415416</v>
+        <v>0.9902654390172988</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.03863502769369612</v>
       </c>
       <c r="H5" t="n">
-        <v>1.479707906084425</v>
+        <v>1.301510036234764</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4901934027661541</v>
+        <v>0.03440412074350293</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1394297833258974</v>
+        <v>0.1245446412496092</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3148115930460258</v>
+        <v>0.07947439507452154</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.3122947321357716</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.196557949963099</v>
       </c>
       <c r="N5" t="n">
-        <v>1.010150734101484</v>
+        <v>1.002829858806652</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.204925828824077</v>
       </c>
       <c r="P5" t="n">
-        <v>149.9525535028395</v>
+        <v>152.5071919215871</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.9304887182182</v>
+        <v>241.4851271369657</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_19</t>
+          <t>model_14_7_1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9933315579300664</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8051908076464593</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9502980081885258</v>
+        <v>0.9955726558626976</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7144324801802818</v>
+        <v>0.9835135718871256</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9392095330415416</v>
+        <v>0.9947305534354004</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.04459190282699775</v>
       </c>
       <c r="H6" t="n">
-        <v>1.479707906084425</v>
+        <v>1.302689966281976</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4901934027661541</v>
+        <v>0.02973963758756812</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1394297833258974</v>
+        <v>0.05630144404791093</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3148115930460258</v>
+        <v>0.04302054081773952</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.1810442232345243</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2111679493365358</v>
       </c>
       <c r="N6" t="n">
-        <v>1.010150734101484</v>
+        <v>1.003266175707723</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.220157806117709</v>
       </c>
       <c r="P6" t="n">
-        <v>149.9525535028395</v>
+        <v>152.2204059748053</v>
       </c>
       <c r="Q6" t="n">
-        <v>238.9304887182182</v>
+        <v>241.198341190184</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_18</t>
+          <t>model_14_7_6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9940484848825897</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8050086833917196</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9502980081885258</v>
+        <v>0.9944033758360395</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7144324801802818</v>
+        <v>0.9577257972947996</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9392095330415416</v>
+        <v>0.988856084292516</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.03979780899432982</v>
       </c>
       <c r="H7" t="n">
-        <v>1.479707906084425</v>
+        <v>1.303907832012026</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4901934027661541</v>
+        <v>0.03759399974076221</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1394297833258974</v>
+        <v>0.1443671510882485</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3148115930460258</v>
+        <v>0.09098057541450537</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.3401357439047176</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.1994938820974965</v>
       </c>
       <c r="N7" t="n">
-        <v>1.010150734101484</v>
+        <v>1.002915027812609</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2079867496676532</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9525535028395</v>
+        <v>152.4478868372016</v>
       </c>
       <c r="Q7" t="n">
-        <v>238.9304887182182</v>
+        <v>241.4258220525802</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_17</t>
+          <t>model_14_7_7</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9937967772623398</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8045810997647173</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9502980081885258</v>
+        <v>0.9938848976556415</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7144324801802818</v>
+        <v>0.9519358733355964</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9392095330415416</v>
+        <v>0.9874318421101766</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.04148097900994761</v>
       </c>
       <c r="H8" t="n">
-        <v>1.479707906084425</v>
+        <v>1.306767085694633</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4901934027661541</v>
+        <v>0.04107675434575997</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1394297833258974</v>
+        <v>0.1641398439722927</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3148115930460258</v>
+        <v>0.1026082991590263</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.3657890016523572</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2036687973400629</v>
       </c>
       <c r="N8" t="n">
-        <v>1.010150734101484</v>
+        <v>1.003038313177629</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2123393996953616</v>
       </c>
       <c r="P8" t="n">
-        <v>149.9525535028395</v>
+        <v>152.3650405878475</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.9304887182182</v>
+        <v>241.3429758032261</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_16</t>
+          <t>model_14_7_0</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.992417295842145</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8043940437985104</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9502980081885258</v>
+        <v>0.9951400263895621</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7144324801802818</v>
+        <v>0.9865159993236786</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9392095330415416</v>
+        <v>0.995180523956355</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.05070557761871831</v>
       </c>
       <c r="H9" t="n">
-        <v>1.479707906084425</v>
+        <v>1.308017929801971</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4901934027661541</v>
+        <v>0.03264572379675745</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1394297833258974</v>
+        <v>0.0460481011667447</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3148115930460258</v>
+        <v>0.03934691495851655</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.1446753006650399</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2251789901805191</v>
       </c>
       <c r="N9" t="n">
-        <v>1.010150734101484</v>
+        <v>1.003713977546705</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2347653259772736</v>
       </c>
       <c r="P9" t="n">
-        <v>149.9525535028395</v>
+        <v>151.9634387244648</v>
       </c>
       <c r="Q9" t="n">
-        <v>238.9304887182182</v>
+        <v>240.9413739398434</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_15</t>
+          <t>model_14_7_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9934933406323353</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8041126670008609</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9502980081885258</v>
+        <v>0.9933456062105398</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7144324801802818</v>
+        <v>0.946266065418274</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9392095330415416</v>
+        <v>0.9860241595388731</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.04351006115198505</v>
       </c>
       <c r="H10" t="n">
-        <v>1.479707906084425</v>
+        <v>1.309899497743474</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4901934027661541</v>
+        <v>0.04469931713600449</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1394297833258974</v>
+        <v>0.183502338445565</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3148115930460258</v>
+        <v>0.1141008277907848</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.3892850682105592</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2085906545173706</v>
       </c>
       <c r="N10" t="n">
-        <v>1.010150734101484</v>
+        <v>1.003186935200489</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2174707905223562</v>
       </c>
       <c r="P10" t="n">
-        <v>149.9525535028395</v>
+        <v>152.2695261535617</v>
       </c>
       <c r="Q10" t="n">
-        <v>238.9304887182182</v>
+        <v>241.2474613689404</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_14</t>
+          <t>model_14_7_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9931582072526285</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8036244495995346</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9502980081885258</v>
+        <v>0.9928022081112573</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7144324801802818</v>
+        <v>0.9407924904275137</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9392095330415416</v>
+        <v>0.9846558303962709</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.0457510996052319</v>
       </c>
       <c r="H11" t="n">
-        <v>1.479707906084425</v>
+        <v>1.313164209754178</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4901934027661541</v>
+        <v>0.04834946540486725</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1394297833258974</v>
+        <v>0.2021946939985354</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3148115930460258</v>
+        <v>0.1252720692123963</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.4107139910824731</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2138950668090124</v>
       </c>
       <c r="N11" t="n">
-        <v>1.010150734101484</v>
+        <v>1.003351082161978</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2230010226269004</v>
       </c>
       <c r="P11" t="n">
-        <v>149.9525535028395</v>
+        <v>152.1690789049248</v>
       </c>
       <c r="Q11" t="n">
-        <v>238.9304887182182</v>
+        <v>241.1470141203035</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_13</t>
+          <t>model_14_7_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9928066583498535</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8031320177954564</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9502980081885258</v>
+        <v>0.9922665988592819</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7144324801802818</v>
+        <v>0.9355685018427212</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9392095330415416</v>
+        <v>0.983342903225676</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.04810190873682276</v>
       </c>
       <c r="H12" t="n">
-        <v>1.479707906084425</v>
+        <v>1.316457103495488</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4901934027661541</v>
+        <v>0.05194729393328251</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1394297833258974</v>
+        <v>0.2200347075539238</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3148115930460258</v>
+        <v>0.1359910007436032</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.4301868709799492</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2193214734968347</v>
       </c>
       <c r="N12" t="n">
-        <v>1.010150734101484</v>
+        <v>1.003523269379664</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2286584426816337</v>
       </c>
       <c r="P12" t="n">
-        <v>149.9525535028395</v>
+        <v>152.0688668399591</v>
       </c>
       <c r="Q12" t="n">
-        <v>238.9304887182182</v>
+        <v>241.0468020553377</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_23</t>
+          <t>model_14_7_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9924500704379551</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8026464873182196</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9502980081885258</v>
+        <v>0.991747445837681</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7144324801802818</v>
+        <v>0.9306272978951184</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9392095330415416</v>
+        <v>0.9820958894119181</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.05048641374562338</v>
       </c>
       <c r="H13" t="n">
-        <v>1.479707906084425</v>
+        <v>1.319703848032433</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4901934027661541</v>
+        <v>0.05543458162452272</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1394297833258974</v>
+        <v>0.2369090065640307</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3148115930460258</v>
+        <v>0.1461718058845949</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.4478262664572947</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.22469181948977</v>
       </c>
       <c r="N13" t="n">
-        <v>1.010150734101484</v>
+        <v>1.003697924683451</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.234257415421637</v>
       </c>
       <c r="P13" t="n">
-        <v>149.9525535028395</v>
+        <v>151.9721020272746</v>
       </c>
       <c r="Q13" t="n">
-        <v>238.9304887182182</v>
+        <v>240.9500372426532</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9920968335317099</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8021758086279033</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9502980081885258</v>
+        <v>0.9912503999623424</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7144324801802818</v>
+        <v>0.925988442421067</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9392095330415416</v>
+        <v>0.9809212084432629</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.05284851056419176</v>
       </c>
       <c r="H14" t="n">
-        <v>1.479707906084425</v>
+        <v>1.322851278601855</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4901934027661541</v>
+        <v>0.05877336978702908</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1394297833258974</v>
+        <v>0.2527507801811248</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3148115930460258</v>
+        <v>0.155762074984077</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.463780527827103</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2298880391934121</v>
       </c>
       <c r="N14" t="n">
-        <v>1.010150734101484</v>
+        <v>1.003870938678346</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2396748489557208</v>
       </c>
       <c r="P14" t="n">
-        <v>149.9525535028395</v>
+        <v>151.8806514987735</v>
       </c>
       <c r="Q14" t="n">
-        <v>238.9304887182182</v>
+        <v>240.8585867141521</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_10</t>
+          <t>model_14_7_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9917528987679197</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8017252929010626</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9502980081885258</v>
+        <v>0.9907790657493123</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7144324801802818</v>
+        <v>0.9216594116881629</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9392095330415416</v>
+        <v>0.9798219024822066</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.05514840391332997</v>
       </c>
       <c r="H15" t="n">
-        <v>1.479707906084425</v>
+        <v>1.325863879341672</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4901934027661541</v>
+        <v>0.06193944593639222</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1394297833258974</v>
+        <v>0.2675344968189303</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3148115930460258</v>
+        <v>0.1647369713776612</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.4781798122782023</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.234836973054351</v>
       </c>
       <c r="N15" t="n">
-        <v>1.010150734101484</v>
+        <v>1.004039396521835</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2448344691768252</v>
       </c>
       <c r="P15" t="n">
-        <v>149.9525535028395</v>
+        <v>151.7954549490591</v>
       </c>
       <c r="Q15" t="n">
-        <v>238.9304887182182</v>
+        <v>240.7733901644377</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_9</t>
+          <t>model_14_7_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9914224635529266</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8012982833986015</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9502980081885258</v>
+        <v>0.9903357491311212</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7144324801802818</v>
+        <v>0.9176400297963954</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9392095330415416</v>
+        <v>0.978798884816694</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.05735802571750358</v>
       </c>
       <c r="H16" t="n">
-        <v>1.479707906084425</v>
+        <v>1.328719293850828</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4901934027661541</v>
+        <v>0.06491732051597758</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1394297833258974</v>
+        <v>0.2812607571791</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3148115930460258</v>
+        <v>0.1730890388475388</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.4911654870146978</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2394953563589565</v>
       </c>
       <c r="N16" t="n">
-        <v>1.010150734101484</v>
+        <v>1.004201242341424</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2496911695028907</v>
       </c>
       <c r="P16" t="n">
-        <v>149.9525535028395</v>
+        <v>151.7168850048681</v>
       </c>
       <c r="Q16" t="n">
-        <v>238.9304887182182</v>
+        <v>240.6948202202467</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_8</t>
+          <t>model_14_7_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9911082653422146</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8008967755333071</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9502980081885258</v>
+        <v>0.9899212598752911</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7144324801802818</v>
+        <v>0.9139240063103899</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9392095330415416</v>
+        <v>0.9778511816832377</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.05945907059928412</v>
       </c>
       <c r="H17" t="n">
-        <v>1.479707906084425</v>
+        <v>1.331404178794826</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4901934027661541</v>
+        <v>0.06770155410389116</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1394297833258974</v>
+        <v>0.2939510432098672</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3148115930460258</v>
+        <v>0.1808262273427892</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.5028571932637693</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2438423068281715</v>
       </c>
       <c r="N17" t="n">
-        <v>1.010150734101484</v>
+        <v>1.004355135342589</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.254223178653008</v>
       </c>
       <c r="P17" t="n">
-        <v>149.9525535028395</v>
+        <v>151.6449341844449</v>
       </c>
       <c r="Q17" t="n">
-        <v>238.9304887182182</v>
+        <v>240.6228693998236</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_7</t>
+          <t>model_14_7_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9908119135608064</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8005216611234645</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9502980081885258</v>
+        <v>0.989535815254221</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7144324801802818</v>
+        <v>0.9105000670235942</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9392095330415416</v>
+        <v>0.9769764913919047</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.06144077632613496</v>
       </c>
       <c r="H18" t="n">
-        <v>1.479707906084425</v>
+        <v>1.333912570580686</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4901934027661541</v>
+        <v>0.07029068722415704</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1394297833258974</v>
+        <v>0.3056438565263209</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3148115930460258</v>
+        <v>0.1879673282003191</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.5133827233540166</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2478725001409696</v>
       </c>
       <c r="N18" t="n">
-        <v>1.010150734101484</v>
+        <v>1.004500287235523</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2584249456387823</v>
       </c>
       <c r="P18" t="n">
-        <v>149.9525535028395</v>
+        <v>151.579363109412</v>
       </c>
       <c r="Q18" t="n">
-        <v>238.9304887182182</v>
+        <v>240.5572983247907</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_6</t>
+          <t>model_14_7_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9905343173436082</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8001729895343634</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9502980081885258</v>
+        <v>0.9891788579953197</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7144324801802818</v>
+        <v>0.907355247504754</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9392095330415416</v>
+        <v>0.976171920115002</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.06329706350875269</v>
       </c>
       <c r="H19" t="n">
-        <v>1.479707906084425</v>
+        <v>1.336244139102489</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4901934027661541</v>
+        <v>0.07268846322366219</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1394297833258974</v>
+        <v>0.3163834708908474</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3148115930460258</v>
+        <v>0.1945359670572548</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.5228524439210886</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2515890766880643</v>
       </c>
       <c r="N19" t="n">
-        <v>1.010150734101484</v>
+        <v>1.004636252729661</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2622997445438608</v>
       </c>
       <c r="P19" t="n">
-        <v>149.9525535028395</v>
+        <v>151.5198326819503</v>
       </c>
       <c r="Q19" t="n">
-        <v>238.9304887182182</v>
+        <v>240.4977678973289</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_5</t>
+          <t>model_14_7_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9902756955459395</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.7998503642551308</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9502980081885258</v>
+        <v>0.9888494894641902</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7144324801802818</v>
+        <v>0.9044740247153865</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9392095330415416</v>
+        <v>0.9754338221325288</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.06502646866060745</v>
       </c>
       <c r="H20" t="n">
-        <v>1.479707906084425</v>
+        <v>1.338401535830271</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4901934027661541</v>
+        <v>0.0749009184665269</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1394297833258974</v>
+        <v>0.3262228977548425</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3148115930460258</v>
+        <v>0.2005619081106847</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.5313743067422395</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.255002879710421</v>
       </c>
       <c r="N20" t="n">
-        <v>1.010150734101484</v>
+        <v>1.00476292463056</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2658588802284257</v>
       </c>
       <c r="P20" t="n">
-        <v>149.9525535028395</v>
+        <v>151.4659217636217</v>
       </c>
       <c r="Q20" t="n">
-        <v>238.9304887182182</v>
+        <v>240.4438569790004</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_4</t>
+          <t>model_14_7_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9900358603228997</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.7995528734847041</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9502980081885258</v>
+        <v>0.9885466310632453</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7144324801802818</v>
+        <v>0.9018398432869623</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9392095330415416</v>
+        <v>0.9747582940772472</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.06663024790141434</v>
       </c>
       <c r="H21" t="n">
-        <v>1.479707906084425</v>
+        <v>1.340390857981934</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4901934027661541</v>
+        <v>0.07693529817705465</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1394297833258974</v>
+        <v>0.335218673995098</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3148115930460258</v>
+        <v>0.2060770190278366</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.5390331694810648</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.258128355477298</v>
       </c>
       <c r="N21" t="n">
-        <v>1.010150734101484</v>
+        <v>1.004880394943886</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2691174139693255</v>
       </c>
       <c r="P21" t="n">
-        <v>149.9525535028395</v>
+        <v>151.4171932636942</v>
       </c>
       <c r="Q21" t="n">
-        <v>238.9304887182182</v>
+        <v>240.3951284790728</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_3</t>
+          <t>model_14_7_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9898143207911375</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.7992794387424356</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9502980081885258</v>
+        <v>0.9882687240552706</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7144324801802818</v>
+        <v>0.8994366016389369</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9392095330415416</v>
+        <v>0.9741413373440662</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.06811168377040362</v>
       </c>
       <c r="H22" t="n">
-        <v>1.479707906084425</v>
+        <v>1.342219317362535</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4901934027661541</v>
+        <v>0.07880207280398732</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1394297833258974</v>
+        <v>0.3434257867943977</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3148115930460258</v>
+        <v>0.2111139450118487</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.545921823711004</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2609821522066281</v>
       </c>
       <c r="N22" t="n">
-        <v>1.010150734101484</v>
+        <v>1.0049889041023</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2720927027335968</v>
       </c>
       <c r="P22" t="n">
-        <v>149.9525535028395</v>
+        <v>151.3732130253908</v>
       </c>
       <c r="Q22" t="n">
-        <v>238.9304887182182</v>
+        <v>240.3511482407695</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_2</t>
+          <t>model_14_7_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9896103191606397</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.7990287177735874</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9502980081885258</v>
+        <v>0.988014406983353</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7144324801802818</v>
+        <v>0.8972469631316199</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9392095330415416</v>
+        <v>0.9735787613109061</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.06947584361288385</v>
       </c>
       <c r="H23" t="n">
-        <v>1.479707906084425</v>
+        <v>1.343895889635686</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4901934027661541</v>
+        <v>0.08051038761227977</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1394297833258974</v>
+        <v>0.3509034410843885</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3148115930460258</v>
+        <v>0.2157068989209431</v>
       </c>
       <c r="L23" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.5521123430173137</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2635827073479667</v>
       </c>
       <c r="N23" t="n">
-        <v>1.010150734101484</v>
+        <v>1.005088823268258</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2748039688911934</v>
       </c>
       <c r="P23" t="n">
-        <v>149.9525535028395</v>
+        <v>151.3335523214891</v>
       </c>
       <c r="Q23" t="n">
-        <v>238.9304887182182</v>
+        <v>240.3114875368677</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_1</t>
+          <t>model_14_7_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9894230479521896</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.7987993925696483</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9502980081885258</v>
+        <v>0.9877821534215533</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7144324801802818</v>
+        <v>0.8952554539204154</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9392095330415416</v>
+        <v>0.9730666964021322</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.07072812704609389</v>
       </c>
       <c r="H24" t="n">
-        <v>1.479707906084425</v>
+        <v>1.345429388330373</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4901934027661541</v>
+        <v>0.08207049600732133</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1394297833258974</v>
+        <v>0.3577044803184707</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3148115930460258</v>
+        <v>0.2198874725427036</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.5576782853528399</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2659476020687043</v>
       </c>
       <c r="N24" t="n">
-        <v>1.010150734101484</v>
+        <v>1.005180547941785</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2772695420761998</v>
       </c>
       <c r="P24" t="n">
-        <v>149.9525535028395</v>
+        <v>151.2978238972344</v>
       </c>
       <c r="Q24" t="n">
-        <v>238.9304887182182</v>
+        <v>240.275759112613</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_11</t>
+          <t>model_14_7_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9892515059422561</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.7985900346363397</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9502980081885258</v>
+        <v>0.9875703657257066</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7144324801802818</v>
+        <v>0.8934459373247401</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9392095330415416</v>
+        <v>0.972601112216791</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.07187522925639808</v>
       </c>
       <c r="H25" t="n">
-        <v>1.479707906084425</v>
+        <v>1.346829365794412</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4901934027661541</v>
+        <v>0.08349312978609641</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1394297833258974</v>
+        <v>0.3638840115466827</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3148115930460258</v>
+        <v>0.2236885706663895</v>
       </c>
       <c r="L25" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.5626827757117249</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2680955599341363</v>
       </c>
       <c r="N25" t="n">
-        <v>1.010150734101484</v>
+        <v>1.005264568518079</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.279508942954849</v>
       </c>
       <c r="P25" t="n">
-        <v>149.9525535028395</v>
+        <v>151.265647180431</v>
       </c>
       <c r="Q25" t="n">
-        <v>238.9304887182182</v>
+        <v>240.2435823958096</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9890946670078438</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.7983991978151004</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9502980081885258</v>
+        <v>0.9873775117335353</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7144324801802818</v>
+        <v>0.8918032431188913</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9392095330415416</v>
+        <v>0.9721782075278369</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.07292401193298981</v>
       </c>
       <c r="H26" t="n">
-        <v>1.479707906084425</v>
+        <v>1.348105492496762</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4901934027661541</v>
+        <v>0.08478858088648998</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1394297833258974</v>
+        <v>0.3694938413585265</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3148115930460258</v>
+        <v>0.2271412270715975</v>
       </c>
       <c r="L26" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.567179626078078</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2700444628815592</v>
       </c>
       <c r="N26" t="n">
-        <v>1.010150734101484</v>
+        <v>1.005341387587995</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.281540814735529</v>
       </c>
       <c r="P26" t="n">
-        <v>149.9525535028395</v>
+        <v>151.2366746248099</v>
       </c>
       <c r="Q26" t="n">
-        <v>238.9304887182182</v>
+        <v>240.2146098401886</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_14_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_14_7.xlsx
@@ -518,111 +518,111 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_3</t>
+          <t>model_14_7_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9941945871688807</v>
+        <v>0.9837705266477151</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8057180464837539</v>
+        <v>0.7932187188127233</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9955660684122097</v>
+        <v>0.9407545831722092</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9745870800543854</v>
+        <v>0.9985891632838932</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9928608937658271</v>
+        <v>0.9851426680436757</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03882082233316315</v>
+        <v>0.1085265630365823</v>
       </c>
       <c r="H2" t="n">
-        <v>1.299164317749276</v>
+        <v>1.38274737943957</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02978388722890119</v>
+        <v>0.2404430815668587</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08678557178160047</v>
+        <v>0.01704135616019666</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05828471878104129</v>
+        <v>0.1287422188635277</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2502458991836716</v>
+        <v>1.126514938486242</v>
       </c>
       <c r="M2" t="n">
-        <v>0.197030003636916</v>
+        <v>0.3294337005173914</v>
       </c>
       <c r="N2" t="n">
-        <v>1.00284346750912</v>
+        <v>1.007949129805201</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2054179788000743</v>
+        <v>0.3434583751701886</v>
       </c>
       <c r="P2" t="n">
-        <v>152.4975970364623</v>
+        <v>150.4415206307033</v>
       </c>
       <c r="Q2" t="n">
-        <v>241.4755322518409</v>
+        <v>239.4194558460819</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_4</t>
+          <t>model_14_7_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9942851568951747</v>
+        <v>0.9848625653017884</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8056197507155715</v>
+        <v>0.7925394544122333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9952792298608835</v>
+        <v>0.9337826366176661</v>
       </c>
       <c r="E3" t="n">
-        <v>0.969210356925205</v>
+        <v>0.9980208844014474</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9916183630877069</v>
+        <v>0.9831139079810941</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03821518215639987</v>
+        <v>0.1012240955284188</v>
       </c>
       <c r="H3" t="n">
-        <v>1.299821622003723</v>
+        <v>1.387289623613372</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03171065738681939</v>
+        <v>0.2687382038539791</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1051471765116309</v>
+        <v>0.02390554017491499</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06842892293987535</v>
+        <v>0.1463218941892369</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2822904933026955</v>
+        <v>1.029021378746013</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1954870383334912</v>
+        <v>0.3181573439800169</v>
       </c>
       <c r="N3" t="n">
-        <v>1.002799106826853</v>
+        <v>1.007414253729736</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2038093262693042</v>
+        <v>0.331701960789742</v>
       </c>
       <c r="P3" t="n">
-        <v>152.5290448073564</v>
+        <v>150.5808369047255</v>
       </c>
       <c r="Q3" t="n">
-        <v>241.5069800227351</v>
+        <v>239.5587721201041</v>
       </c>
     </row>
     <row r="4">
@@ -632,327 +632,327 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9938982028387104</v>
+        <v>0.9853835070622717</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8056007207173894</v>
+        <v>0.7914577236011276</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9956863263497855</v>
+        <v>0.9250409689335858</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9794412735229155</v>
+        <v>0.9973566816255676</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9939256062029999</v>
+        <v>0.9806038655036542</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0408027457137357</v>
+        <v>0.09774055557735041</v>
       </c>
       <c r="H4" t="n">
-        <v>1.299948875689191</v>
+        <v>1.394523162528147</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02897608296304412</v>
+        <v>0.3042156066394681</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0702084150988401</v>
+        <v>0.03192837934342978</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04959224903094211</v>
+        <v>0.168071992991449</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2163790019514781</v>
+        <v>0.9433490828734847</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2019968953071697</v>
+        <v>0.3126348598242851</v>
       </c>
       <c r="N4" t="n">
-        <v>1.002988635344305</v>
+        <v>1.007159098581744</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2105963213316139</v>
+        <v>0.3259443730503826</v>
       </c>
       <c r="P4" t="n">
-        <v>152.3980118058621</v>
+        <v>150.650877405838</v>
       </c>
       <c r="Q4" t="n">
-        <v>241.3759470212408</v>
+        <v>239.6288126212167</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_5</t>
+          <t>model_14_7_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.994222371603086</v>
+        <v>0.9854908755428187</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8053672588554812</v>
+        <v>0.7901337610268971</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9948782535824692</v>
+        <v>0.9153455101657147</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9635303088663567</v>
+        <v>0.9966216073261231</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9902654390172988</v>
+        <v>0.9778210672383998</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03863502769369612</v>
+        <v>0.0970225820535464</v>
       </c>
       <c r="H5" t="n">
-        <v>1.301510036234764</v>
+        <v>1.403376506358314</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03440412074350293</v>
+        <v>0.3435638990167073</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1245446412496092</v>
+        <v>0.04080726858555659</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07947439507452154</v>
+        <v>0.192185583801132</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3122947321357716</v>
+        <v>0.8680899142932056</v>
       </c>
       <c r="M5" t="n">
-        <v>0.196557949963099</v>
+        <v>0.3114844812403122</v>
       </c>
       <c r="N5" t="n">
-        <v>1.002829858806652</v>
+        <v>1.007106509938211</v>
       </c>
       <c r="O5" t="n">
-        <v>0.204925828824077</v>
+        <v>0.324745020468478</v>
       </c>
       <c r="P5" t="n">
-        <v>152.5071919215871</v>
+        <v>150.6656230457957</v>
       </c>
       <c r="Q5" t="n">
-        <v>241.4851271369657</v>
+        <v>239.6435582611743</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_1</t>
+          <t>model_14_7_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9933315579300664</v>
+        <v>0.9853017580082126</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8051908076464593</v>
+        <v>0.7886795983164343</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9955726558626976</v>
+        <v>0.9052500261563581</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9835135718871256</v>
+        <v>0.9958349868942987</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9947305534354004</v>
+        <v>0.9749086652182137</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04459190282699775</v>
+        <v>0.09828721187826343</v>
       </c>
       <c r="H6" t="n">
-        <v>1.302689966281976</v>
+        <v>1.413100499098983</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02973963758756812</v>
+        <v>0.384535663839873</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05630144404791093</v>
+        <v>0.05030877842618543</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04302054081773952</v>
+        <v>0.2174222211330292</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1810442232345243</v>
+        <v>0.8019588428689794</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2111679493365358</v>
+        <v>0.3135079135815609</v>
       </c>
       <c r="N6" t="n">
-        <v>1.003266175707723</v>
+        <v>1.007199138934753</v>
       </c>
       <c r="O6" t="n">
-        <v>0.220157806117709</v>
+        <v>0.326854594513576</v>
       </c>
       <c r="P6" t="n">
-        <v>152.2204059748053</v>
+        <v>150.6397227061734</v>
       </c>
       <c r="Q6" t="n">
-        <v>241.198341190184</v>
+        <v>239.617657921552</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_6</t>
+          <t>model_14_7_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9940484848825897</v>
+        <v>0.9849033397270648</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8050086833917196</v>
+        <v>0.7871724603461888</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9944033758360395</v>
+        <v>0.895125683117019</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9577257972947996</v>
+        <v>0.9950119441432498</v>
       </c>
       <c r="F7" t="n">
-        <v>0.988856084292516</v>
+        <v>0.9719641195799541</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03979780899432982</v>
+        <v>0.1009514367588462</v>
       </c>
       <c r="H7" t="n">
-        <v>1.303907832012026</v>
+        <v>1.423178737645746</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03759399974076221</v>
+        <v>0.4256245508721736</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1443671510882485</v>
+        <v>0.06025022983269324</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09098057541450537</v>
+        <v>0.2429373903524334</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3401357439047176</v>
+        <v>0.74379281852954</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1994938820974965</v>
+        <v>0.317728558299134</v>
       </c>
       <c r="N7" t="n">
-        <v>1.002915027812609</v>
+        <v>1.007394282582662</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2079867496676532</v>
+        <v>0.3312549208147152</v>
       </c>
       <c r="P7" t="n">
-        <v>152.4478868372016</v>
+        <v>150.5862314038874</v>
       </c>
       <c r="Q7" t="n">
-        <v>241.4258220525802</v>
+        <v>239.5641666192661</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_7</t>
+          <t>model_14_7_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9937967772623398</v>
+        <v>0.9843609656011131</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8045810997647173</v>
+        <v>0.7856638664821634</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9938848976556415</v>
+        <v>0.8852184659972163</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9519358733355964</v>
+        <v>0.9941650574859671</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9874318421101766</v>
+        <v>0.9690538140503264</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04148097900994761</v>
+        <v>0.1045782950364887</v>
       </c>
       <c r="H8" t="n">
-        <v>1.306767085694633</v>
+        <v>1.433266711760921</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04107675434575997</v>
+        <v>0.4658322486416303</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1641398439722927</v>
+        <v>0.07047968940750388</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1026082991590263</v>
+        <v>0.2681558611085889</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3657890016523572</v>
+        <v>0.692571543056188</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2036687973400629</v>
+        <v>0.3233856753730577</v>
       </c>
       <c r="N8" t="n">
-        <v>1.003038313177629</v>
+        <v>1.007659935215781</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2123393996953616</v>
+        <v>0.3371528730743226</v>
       </c>
       <c r="P8" t="n">
-        <v>152.3650405878475</v>
+        <v>150.5156385066292</v>
       </c>
       <c r="Q8" t="n">
-        <v>241.3429758032261</v>
+        <v>239.4935737220079</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_14_7_0</t>
+          <t>model_14_7_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.992417295842145</v>
+        <v>0.9837235890252685</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8043940437985104</v>
+        <v>0.7841880951573923</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9951400263895621</v>
+        <v>0.8756860094822956</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9865159993236786</v>
+        <v>0.9933049393255843</v>
       </c>
       <c r="F9" t="n">
-        <v>0.995180523956355</v>
+        <v>0.9662220225316728</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05070557761871831</v>
+        <v>0.1088404351340113</v>
       </c>
       <c r="H9" t="n">
-        <v>1.308017929801971</v>
+        <v>1.443135201404966</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03264572379675745</v>
+        <v>0.5045190085983005</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0460481011667447</v>
+        <v>0.08086897099026882</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03934691495851655</v>
+        <v>0.2926939897942846</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1446753006650399</v>
+        <v>0.6474034630690617</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2251789901805191</v>
+        <v>0.329909737858723</v>
       </c>
       <c r="N9" t="n">
-        <v>1.003713977546705</v>
+        <v>1.007972119661093</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2347653259772736</v>
+        <v>0.3439546784066738</v>
       </c>
       <c r="P9" t="n">
-        <v>151.9634387244648</v>
+        <v>150.4357447343028</v>
       </c>
       <c r="Q9" t="n">
-        <v>240.9413739398434</v>
+        <v>239.4136799496815</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9934933406323353</v>
+        <v>0.9830281379995593</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8041126670008609</v>
+        <v>0.7827669741516983</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9933456062105398</v>
+        <v>0.8666267594302377</v>
       </c>
       <c r="E10" t="n">
-        <v>0.946266065418274</v>
+        <v>0.9924412878777962</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9860241595388731</v>
+        <v>0.9634985897715895</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04351006115198505</v>
+        <v>0.1134909193451858</v>
       </c>
       <c r="H10" t="n">
-        <v>1.309899497743474</v>
+        <v>1.452638244113703</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04469931713600449</v>
+        <v>0.5412852956097165</v>
       </c>
       <c r="J10" t="n">
-        <v>0.183502338445565</v>
+        <v>0.09130093079965047</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1141008277907848</v>
+        <v>0.3162931647665777</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3892850682105592</v>
+        <v>0.6075168815661111</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2085906545173706</v>
+        <v>0.3368841334126405</v>
       </c>
       <c r="N10" t="n">
-        <v>1.003186935200489</v>
+        <v>1.00831274873491</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2174707905223562</v>
+        <v>0.3512259884183107</v>
       </c>
       <c r="P10" t="n">
-        <v>152.2695261535617</v>
+        <v>150.3520649020612</v>
       </c>
       <c r="Q10" t="n">
-        <v>241.2474613689404</v>
+        <v>239.3300001174398</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9931582072526285</v>
+        <v>0.9823023420630089</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8036244495995346</v>
+        <v>0.7814139973156933</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9928022081112573</v>
+        <v>0.85809647951023</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9407924904275137</v>
+        <v>0.9915826341641769</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9846558303962709</v>
+        <v>0.9609024887770612</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0457510996052319</v>
+        <v>0.118344320114881</v>
       </c>
       <c r="H11" t="n">
-        <v>1.313164209754178</v>
+        <v>1.461685606445954</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04834946540486725</v>
+        <v>0.575904797006024</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2021946939985354</v>
+        <v>0.1016725234758334</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1252720692123963</v>
+        <v>0.3387889805302636</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4107139910824731</v>
+        <v>0.5722372101581944</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2138950668090124</v>
+        <v>0.3440120929776757</v>
       </c>
       <c r="N11" t="n">
-        <v>1.003351082161978</v>
+        <v>1.0086682406222</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2230010226269004</v>
+        <v>0.3586573999789398</v>
       </c>
       <c r="P11" t="n">
-        <v>152.1690789049248</v>
+        <v>150.268313872887</v>
       </c>
       <c r="Q11" t="n">
-        <v>241.1470141203035</v>
+        <v>239.2462490882656</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9928066583498535</v>
+        <v>0.9815670228034638</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8031320177954564</v>
+        <v>0.7801367945468117</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9922665988592819</v>
+        <v>0.8501216852574609</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9355685018427212</v>
+        <v>0.9907367799071347</v>
       </c>
       <c r="F12" t="n">
-        <v>0.983342903225676</v>
+        <v>0.9584454595637414</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04810190873682276</v>
+        <v>0.1232614033892936</v>
       </c>
       <c r="H12" t="n">
-        <v>1.316457103495488</v>
+        <v>1.470226267242443</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05194729393328251</v>
+        <v>0.6082699014759794</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2200347075539238</v>
+        <v>0.1118895127909759</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1359910007436032</v>
+        <v>0.3600797071334776</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4301868709799492</v>
+        <v>0.5409851867178133</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2193214734968347</v>
+        <v>0.351086034170107</v>
       </c>
       <c r="N12" t="n">
-        <v>1.003523269379664</v>
+        <v>1.009028396994222</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2286584426816337</v>
+        <v>0.36603249349301</v>
       </c>
       <c r="P12" t="n">
-        <v>152.0688668399591</v>
+        <v>150.1868958958219</v>
       </c>
       <c r="Q12" t="n">
-        <v>241.0468020553377</v>
+        <v>239.1648311112005</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9924500704379551</v>
+        <v>0.9808376522786725</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8026464873182196</v>
+        <v>0.7789390729049226</v>
       </c>
       <c r="D13" t="n">
-        <v>0.991747445837681</v>
+        <v>0.8427085868907374</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9306272978951184</v>
+        <v>0.9899104486160962</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9820958894119181</v>
+        <v>0.9561335778100789</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05048641374562338</v>
+        <v>0.1281387074470153</v>
       </c>
       <c r="H13" t="n">
-        <v>1.319703848032433</v>
+        <v>1.478235437376757</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05543458162452272</v>
+        <v>0.638355405312238</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2369090065640307</v>
+        <v>0.1218706861444457</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1461718058845949</v>
+        <v>0.3801126974167647</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4478262664572947</v>
+        <v>0.5132591500506957</v>
       </c>
       <c r="M13" t="n">
-        <v>0.22469181948977</v>
+        <v>0.3579646734623618</v>
       </c>
       <c r="N13" t="n">
-        <v>1.003697924683451</v>
+        <v>1.009385639700242</v>
       </c>
       <c r="O13" t="n">
-        <v>0.234257415421637</v>
+        <v>0.3732039707006823</v>
       </c>
       <c r="P13" t="n">
-        <v>151.9721020272746</v>
+        <v>150.1092838997193</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.9500372426532</v>
+        <v>239.0872191150979</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9920968335317099</v>
+        <v>0.9801255607916953</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8021758086279033</v>
+        <v>0.7778217466973603</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9912503999623424</v>
+        <v>0.8358494705992431</v>
       </c>
       <c r="E14" t="n">
-        <v>0.925988442421067</v>
+        <v>0.9891094790011981</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9809212084432629</v>
+        <v>0.9539690021394396</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05284851056419176</v>
+        <v>0.132900466499311</v>
       </c>
       <c r="H14" t="n">
-        <v>1.322851278601855</v>
+        <v>1.48570700287154</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05877336978702908</v>
+        <v>0.6661926144375643</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2527507801811248</v>
+        <v>0.1315455183380969</v>
       </c>
       <c r="K14" t="n">
-        <v>0.155762074984077</v>
+        <v>0.3988692464092294</v>
       </c>
       <c r="L14" t="n">
-        <v>0.463780527827103</v>
+        <v>0.488624933124707</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2298880391934121</v>
+        <v>0.3645551624916468</v>
       </c>
       <c r="N14" t="n">
-        <v>1.003870938678346</v>
+        <v>1.009734419204068</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2396748489557208</v>
+        <v>0.3800750304921371</v>
       </c>
       <c r="P14" t="n">
-        <v>151.8806514987735</v>
+        <v>150.0363096062325</v>
       </c>
       <c r="Q14" t="n">
-        <v>240.8585867141521</v>
+        <v>239.0142448216112</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9917528987679197</v>
+        <v>0.9794388689938486</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8017252929010626</v>
+        <v>0.7767838497464892</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9907790657493123</v>
+        <v>0.8295268657092225</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9216594116881629</v>
+        <v>0.9883386908713867</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9798219024822066</v>
+        <v>0.9519511834938154</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05514840391332997</v>
+        <v>0.1374923777134376</v>
       </c>
       <c r="H15" t="n">
-        <v>1.325863879341672</v>
+        <v>1.492647424561091</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06193944593639222</v>
+        <v>0.6918524322713232</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2675344968189303</v>
+        <v>0.140855791379767</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1647369713776612</v>
+        <v>0.4163541118255451</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4781798122782023</v>
+        <v>0.4667135302308577</v>
       </c>
       <c r="M15" t="n">
-        <v>0.234836973054351</v>
+        <v>0.3707996463232369</v>
       </c>
       <c r="N15" t="n">
-        <v>1.004039396521835</v>
+        <v>1.010070758043829</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2448344691768252</v>
+        <v>0.3865853549283015</v>
       </c>
       <c r="P15" t="n">
-        <v>151.7954549490591</v>
+        <v>149.9683735964469</v>
       </c>
       <c r="Q15" t="n">
-        <v>240.7733901644377</v>
+        <v>238.9463088118255</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9914224635529266</v>
+        <v>0.9787830798360121</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8012982833986015</v>
+        <v>0.7758231688694097</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9903357491311212</v>
+        <v>0.823717219481594</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9176400297963954</v>
+        <v>0.9876015995203868</v>
       </c>
       <c r="F16" t="n">
-        <v>0.978798884816694</v>
+        <v>0.9500769876802209</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05735802571750358</v>
+        <v>0.1418776428315217</v>
       </c>
       <c r="H16" t="n">
-        <v>1.328719293850828</v>
+        <v>1.49907150200965</v>
       </c>
       <c r="I16" t="n">
-        <v>0.06491732051597758</v>
+        <v>0.7154304458389313</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2812607571791</v>
+        <v>0.1497590443867143</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1730890388475388</v>
+        <v>0.4325944521730721</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4911654870146978</v>
+        <v>0.4471919245322033</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2394953563589565</v>
+        <v>0.3766664875344258</v>
       </c>
       <c r="N16" t="n">
-        <v>1.004201242341424</v>
+        <v>1.010391960896647</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2496911695028907</v>
+        <v>0.3927019597158862</v>
       </c>
       <c r="P16" t="n">
-        <v>151.7168850048681</v>
+        <v>149.9055805260652</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.6948202202467</v>
+        <v>238.8835157414438</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9911082653422146</v>
+        <v>0.9781617661709804</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8008967755333071</v>
+        <v>0.7749366702427776</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9899212598752911</v>
+        <v>0.818392279259152</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9139240063103899</v>
+        <v>0.9869011165293691</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9778511816832377</v>
+        <v>0.9483417471840764</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05945907059928412</v>
+        <v>0.1460323701704748</v>
       </c>
       <c r="H17" t="n">
-        <v>1.331404178794826</v>
+        <v>1.50499952240789</v>
       </c>
       <c r="I17" t="n">
-        <v>0.06770155410389116</v>
+        <v>0.7370413164310796</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2939510432098672</v>
+        <v>0.158220108660002</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1808262273427892</v>
+        <v>0.4476307125455408</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5028571932637693</v>
+        <v>0.4297901384669434</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2438423068281715</v>
+        <v>0.3821418194472764</v>
       </c>
       <c r="N17" t="n">
-        <v>1.004355135342589</v>
+        <v>1.010696277793806</v>
       </c>
       <c r="O17" t="n">
-        <v>0.254223178653008</v>
+        <v>0.3984103878437664</v>
       </c>
       <c r="P17" t="n">
-        <v>151.6449341844449</v>
+        <v>149.8478539367044</v>
       </c>
       <c r="Q17" t="n">
-        <v>240.6228693998236</v>
+        <v>238.825789152083</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9908119135608064</v>
+        <v>0.9775770990918194</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8005216611234645</v>
+        <v>0.7741207948201819</v>
       </c>
       <c r="D18" t="n">
-        <v>0.989535815254221</v>
+        <v>0.8135237686749961</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9105000670235942</v>
+        <v>0.9862388762399049</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9769764913919047</v>
+        <v>0.9467400599141512</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06144077632613496</v>
+        <v>0.1499420416209683</v>
       </c>
       <c r="H18" t="n">
-        <v>1.333912570580686</v>
+        <v>1.510455285115548</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07029068722415704</v>
+        <v>0.7567998015624768</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3056438565263209</v>
+        <v>0.1662192431505857</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1879673282003191</v>
+        <v>0.4615097033133183</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5133827233540166</v>
+        <v>0.4142582132787945</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2478725001409696</v>
+        <v>0.3872235034459663</v>
       </c>
       <c r="N18" t="n">
-        <v>1.004500287235523</v>
+        <v>1.010982645342782</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2584249456387823</v>
+        <v>0.4037084096508167</v>
       </c>
       <c r="P18" t="n">
-        <v>151.579363109412</v>
+        <v>149.7950128974939</v>
       </c>
       <c r="Q18" t="n">
-        <v>240.5572983247907</v>
+        <v>238.7729481128726</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9905343173436082</v>
+        <v>0.9770298875636427</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8001729895343634</v>
+        <v>0.7733715967935659</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9891788579953197</v>
+        <v>0.8090797798645373</v>
       </c>
       <c r="E19" t="n">
-        <v>0.907355247504754</v>
+        <v>0.9856160541746974</v>
       </c>
       <c r="F19" t="n">
-        <v>0.976171920115002</v>
+        <v>0.9452653250919696</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06329706350875269</v>
+        <v>0.1536012476295633</v>
       </c>
       <c r="H19" t="n">
-        <v>1.336244139102489</v>
+        <v>1.515465175769269</v>
       </c>
       <c r="I19" t="n">
-        <v>0.07268846322366219</v>
+        <v>0.7748353969088857</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3163834708908474</v>
+        <v>0.1737422488368263</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1945359670572548</v>
+        <v>0.474288621749084</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5228524439210886</v>
+        <v>0.4003864927909422</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2515890766880643</v>
+        <v>0.3919199505378149</v>
       </c>
       <c r="N19" t="n">
-        <v>1.004636252729661</v>
+        <v>1.011250667315767</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2622997445438608</v>
+        <v>0.408604794218351</v>
       </c>
       <c r="P19" t="n">
-        <v>151.5198326819503</v>
+        <v>149.7467906714265</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.4977678973289</v>
+        <v>238.7247258868051</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9902756955459395</v>
+        <v>0.9765203018066724</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7998503642551308</v>
+        <v>0.7726850208797226</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9888494894641902</v>
+        <v>0.8050315381992696</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9044740247153865</v>
+        <v>0.9850328793244746</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9754338221325288</v>
+        <v>0.9439108316330642</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06502646866060745</v>
+        <v>0.1570088499328511</v>
       </c>
       <c r="H20" t="n">
-        <v>1.338401535830271</v>
+        <v>1.520056312066531</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0749009184665269</v>
+        <v>0.791264882142378</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3262228977548425</v>
+        <v>0.1807863597625348</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2005619081106847</v>
+        <v>0.4860256209524564</v>
       </c>
       <c r="L20" t="n">
-        <v>0.5313743067422395</v>
+        <v>0.3879773920646406</v>
       </c>
       <c r="M20" t="n">
-        <v>0.255002879710421</v>
+        <v>0.3962434225736133</v>
       </c>
       <c r="N20" t="n">
-        <v>1.00476292463056</v>
+        <v>1.011500260339589</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2658588802284257</v>
+        <v>0.4131123254095342</v>
       </c>
       <c r="P20" t="n">
-        <v>151.4659217636217</v>
+        <v>149.7029062124469</v>
       </c>
       <c r="Q20" t="n">
-        <v>240.4438569790004</v>
+        <v>238.6808414278255</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9900358603228997</v>
+        <v>0.9760475053700968</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7995528734847041</v>
+        <v>0.7720569861831561</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9885466310632453</v>
+        <v>0.8013477253805323</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9018398432869623</v>
+        <v>0.984488878318885</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9747582940772472</v>
+        <v>0.9426689821840742</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06663024790141434</v>
+        <v>0.1601704418812596</v>
       </c>
       <c r="H21" t="n">
-        <v>1.340390857981934</v>
+        <v>1.524255982974305</v>
       </c>
       <c r="I21" t="n">
-        <v>0.07693529817705465</v>
+        <v>0.806215360229608</v>
       </c>
       <c r="J21" t="n">
-        <v>0.335218673995098</v>
+        <v>0.1873572937210297</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2060770190278366</v>
+        <v>0.4967865337480655</v>
       </c>
       <c r="L21" t="n">
-        <v>0.5390331694810648</v>
+        <v>0.3768844144051768</v>
       </c>
       <c r="M21" t="n">
-        <v>0.258128355477298</v>
+        <v>0.4002129956426448</v>
       </c>
       <c r="N21" t="n">
-        <v>1.004880394943886</v>
+        <v>1.011731834104442</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2691174139693255</v>
+        <v>0.4172508914222635</v>
       </c>
       <c r="P21" t="n">
-        <v>151.4171932636942</v>
+        <v>149.6630335379582</v>
       </c>
       <c r="Q21" t="n">
-        <v>240.3951284790728</v>
+        <v>238.6409687533369</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9898143207911375</v>
+        <v>0.9756104285227999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7992794387424356</v>
+        <v>0.7714833328034058</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9882687240552706</v>
+        <v>0.797999604879559</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8994366016389369</v>
+        <v>0.9839834528927953</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9741413373440662</v>
+        <v>0.9415327252394309</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06811168377040362</v>
+        <v>0.1630931767716875</v>
       </c>
       <c r="H22" t="n">
-        <v>1.342219317362535</v>
+        <v>1.528092005766126</v>
       </c>
       <c r="I22" t="n">
-        <v>0.07880207280398732</v>
+        <v>0.8198034562177116</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3434257867943977</v>
+        <v>0.1934622770972638</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2111139450118487</v>
+        <v>0.5066324630631335</v>
       </c>
       <c r="L22" t="n">
-        <v>0.545921823711004</v>
+        <v>0.3669520362454245</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2609821522066281</v>
+        <v>0.4038479624458783</v>
       </c>
       <c r="N22" t="n">
-        <v>1.0049889041023</v>
+        <v>1.011945912560261</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2720927027335968</v>
+        <v>0.4210406062877292</v>
       </c>
       <c r="P22" t="n">
-        <v>151.3732130253908</v>
+        <v>149.6268672097225</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.3511482407695</v>
+        <v>238.6048024251011</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9896103191606397</v>
+        <v>0.9752077080219507</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7990287177735874</v>
+        <v>0.7709601996411737</v>
       </c>
       <c r="D23" t="n">
-        <v>0.988014406983353</v>
+        <v>0.7949611062808507</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8972469631316199</v>
+        <v>0.9835153628114692</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9735787613109061</v>
+        <v>0.940494879934852</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06947584361288385</v>
+        <v>0.1657861706152237</v>
       </c>
       <c r="H23" t="n">
-        <v>1.343895889635686</v>
+        <v>1.531590199630779</v>
       </c>
       <c r="I23" t="n">
-        <v>0.08051038761227977</v>
+        <v>0.832134974933051</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3509034410843885</v>
+        <v>0.1991162905630791</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2157068989209431</v>
+        <v>0.5156256327480651</v>
       </c>
       <c r="L23" t="n">
-        <v>0.5521123430173137</v>
+        <v>0.3580540938846465</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2635827073479667</v>
+        <v>0.4071684793979314</v>
       </c>
       <c r="N23" t="n">
-        <v>1.005088823268258</v>
+        <v>1.01214316341782</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2748039688911934</v>
+        <v>0.4245024845208489</v>
       </c>
       <c r="P23" t="n">
-        <v>151.3335523214891</v>
+        <v>149.5941128996012</v>
       </c>
       <c r="Q23" t="n">
-        <v>240.3114875368677</v>
+        <v>238.5720481149799</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9894230479521896</v>
+        <v>0.9748374712510518</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7987993925696483</v>
+        <v>0.770483739912093</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9877821534215533</v>
+        <v>0.7922049101220007</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8952554539204154</v>
+        <v>0.9830829890981644</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9730666964021322</v>
+        <v>0.9395481314449916</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07072812704609389</v>
+        <v>0.1682619456070082</v>
       </c>
       <c r="H24" t="n">
-        <v>1.345429388330373</v>
+        <v>1.534776288033037</v>
       </c>
       <c r="I24" t="n">
-        <v>0.08207049600732133</v>
+        <v>0.8433207903652041</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3577044803184707</v>
+        <v>0.2043388895772776</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2198874725427036</v>
+        <v>0.5238294274568751</v>
       </c>
       <c r="L24" t="n">
-        <v>0.5576782853528399</v>
+        <v>0.3500756651947339</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2659476020687043</v>
+        <v>0.4101974470995745</v>
       </c>
       <c r="N24" t="n">
-        <v>1.005180547941785</v>
+        <v>1.012324503877036</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2772695420761998</v>
+        <v>0.4276604016483785</v>
       </c>
       <c r="P24" t="n">
-        <v>151.2978238972344</v>
+        <v>149.564466627655</v>
       </c>
       <c r="Q24" t="n">
-        <v>240.275759112613</v>
+        <v>238.5424018430336</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9892515059422561</v>
+        <v>0.9744979935303706</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7985900346363397</v>
+        <v>0.770050253606432</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9875703657257066</v>
+        <v>0.7897077453220218</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8934459373247401</v>
+        <v>0.9826847764930392</v>
       </c>
       <c r="F25" t="n">
-        <v>0.972601112216791</v>
+        <v>0.938685756807942</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07187522925639808</v>
+        <v>0.1705320346883547</v>
       </c>
       <c r="H25" t="n">
-        <v>1.346829365794412</v>
+        <v>1.537675012955013</v>
       </c>
       <c r="I25" t="n">
-        <v>0.08349312978609641</v>
+        <v>0.8534553464513309</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3638840115466827</v>
+        <v>0.2091488599685664</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2236885706663895</v>
+        <v>0.5313021032099488</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5626827757117249</v>
+        <v>0.3429338514184401</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2680955599341363</v>
+        <v>0.4129552453818146</v>
       </c>
       <c r="N25" t="n">
-        <v>1.005264568518079</v>
+        <v>1.012490778679002</v>
       </c>
       <c r="O25" t="n">
-        <v>0.279508942954849</v>
+        <v>0.430535605112923</v>
       </c>
       <c r="P25" t="n">
-        <v>151.265647180431</v>
+        <v>149.5376642263437</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.2435823958096</v>
+        <v>238.5155994417223</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9890946670078438</v>
+        <v>0.9741873115017646</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7983991978151004</v>
+        <v>0.7696563058797274</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9873775117335353</v>
+        <v>0.7874465775653703</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8918032431188913</v>
+        <v>0.9823188013283713</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9721782075278369</v>
+        <v>0.9379010999047344</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07292401193298981</v>
+        <v>0.1726095668442015</v>
       </c>
       <c r="H26" t="n">
-        <v>1.348105492496762</v>
+        <v>1.540309343217448</v>
       </c>
       <c r="I26" t="n">
-        <v>0.08478858088648998</v>
+        <v>0.8626321262337946</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3694938413585265</v>
+        <v>0.213569437527749</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2271412270715975</v>
+        <v>0.5381013368181427</v>
       </c>
       <c r="L26" t="n">
-        <v>0.567179626078078</v>
+        <v>0.336521360413356</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2700444628815592</v>
+        <v>0.4154630751874365</v>
       </c>
       <c r="N26" t="n">
-        <v>1.005341387587995</v>
+        <v>1.012642949468523</v>
       </c>
       <c r="O26" t="n">
-        <v>0.281540814735529</v>
+        <v>0.4331501984252936</v>
       </c>
       <c r="P26" t="n">
-        <v>151.2366746248099</v>
+        <v>149.5134461480691</v>
       </c>
       <c r="Q26" t="n">
-        <v>240.2146098401886</v>
+        <v>238.4913813634478</v>
       </c>
     </row>
   </sheetData>
